--- a/Session_17_Additional_Exercise.xlsx
+++ b/Session_17_Additional_Exercise.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Sales of product</t>
   </si>
@@ -557,16 +557,13 @@
   <si>
     <t>Cov(X,Y) =</t>
   </si>
-  <si>
-    <t>s</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -769,37 +766,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -975,7 +972,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout/>
@@ -1127,11 +1124,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="648525968"/>
-        <c:axId val="648523792"/>
+        <c:axId val="711383008"/>
+        <c:axId val="711384096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="648525968"/>
+        <c:axId val="711383008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,12 +1185,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648523792"/>
+        <c:crossAx val="711384096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="648523792"/>
+        <c:axId val="711384096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,7 +1247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648525968"/>
+        <c:crossAx val="711383008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1422,7 +1419,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout/>
@@ -1574,11 +1571,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="714221296"/>
-        <c:axId val="714224016"/>
+        <c:axId val="711378656"/>
+        <c:axId val="711377568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="714221296"/>
+        <c:axId val="711378656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,12 +1632,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="714224016"/>
+        <c:crossAx val="711377568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="714224016"/>
+        <c:axId val="711377568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1697,7 +1694,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="714221296"/>
+        <c:crossAx val="711378656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1869,7 +1866,7 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
+            <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout/>
@@ -2021,11 +2018,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="648525424"/>
-        <c:axId val="648521616"/>
+        <c:axId val="644332800"/>
+        <c:axId val="719113472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="648525424"/>
+        <c:axId val="644332800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2082,12 +2079,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648521616"/>
+        <c:crossAx val="719113472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="648521616"/>
+        <c:axId val="719113472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2144,7 +2141,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="648525424"/>
+        <c:crossAx val="644332800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4528,8 +4525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AI33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="Q7" workbookViewId="0">
-      <selection activeCell="AG33" sqref="AG33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4714,21 +4711,21 @@
         <v>230.1</v>
       </c>
       <c r="R7" s="5">
-        <f>$H$24*Q7+$J$24</f>
+        <f t="shared" ref="R7:R21" si="1">$H$24*Q7+$J$24</f>
         <v>14.754395760038488</v>
       </c>
       <c r="S7" s="5">
         <v>37.799999999999997</v>
       </c>
       <c r="T7" s="5">
-        <f>$H$25*S7+$J$25</f>
+        <f t="shared" ref="T7:T21" si="2">$H$25*S7+$J$25</f>
         <v>12.641560269182799</v>
       </c>
       <c r="U7" s="5">
         <v>69.2</v>
       </c>
       <c r="V7" s="5">
-        <f>$H$26*U7+$J$26</f>
+        <f t="shared" ref="V7:V21" si="3">$H$26*U7+$J$26</f>
         <v>12.702773253928411</v>
       </c>
       <c r="X7" s="4">
@@ -4747,31 +4744,31 @@
         <v>22.1</v>
       </c>
       <c r="AC7" s="27">
-        <f>Y7*AB7</f>
+        <f t="shared" ref="AC7:AC21" si="4">Y7*AB7</f>
         <v>5085.21</v>
       </c>
       <c r="AD7" s="27">
-        <f>Z7*AB7</f>
+        <f t="shared" ref="AD7:AD21" si="5">Z7*AB7</f>
         <v>835.38</v>
       </c>
       <c r="AE7" s="27">
-        <f>AA7*AB7</f>
+        <f t="shared" ref="AE7:AE21" si="6">AA7*AB7</f>
         <v>1529.3200000000002</v>
       </c>
       <c r="AF7" s="27">
-        <f>Y7^2</f>
+        <f t="shared" ref="AF7:AF21" si="7">Y7^2</f>
         <v>52946.009999999995</v>
       </c>
       <c r="AG7" s="27">
-        <f>Z7^2</f>
+        <f t="shared" ref="AG7:AG21" si="8">Z7^2</f>
         <v>1428.8399999999997</v>
       </c>
       <c r="AH7" s="27">
-        <f>AA7^2</f>
+        <f t="shared" ref="AH7:AH21" si="9">AA7^2</f>
         <v>4788.6400000000003</v>
       </c>
       <c r="AI7" s="27">
-        <f>AB7^2</f>
+        <f t="shared" ref="AI7:AI21" si="10">AB7^2</f>
         <v>488.41000000000008</v>
       </c>
     </row>
@@ -4792,60 +4789,60 @@
         <v>10.4</v>
       </c>
       <c r="G8" s="22">
-        <f t="shared" ref="G8:G21" si="1">(B8-$B$22)*(E8-$E$22)</f>
+        <f t="shared" ref="G8:G21" si="11">(B8-$B$22)*(E8-$E$22)</f>
         <v>122.14719999999991</v>
       </c>
       <c r="H8" s="22">
-        <f t="shared" ref="H8:H21" si="2">(C8-$C$22)*(E8-$E$22)</f>
+        <f t="shared" ref="H8:H21" si="12">(C8-$C$22)*(E8-$E$22)</f>
         <v>-25.893777777777746</v>
       </c>
       <c r="I8" s="22">
-        <f t="shared" ref="I8:I21" si="3">(D8-$D$22)*(E8-$E$22)</f>
+        <f t="shared" ref="I8:I21" si="13">(D8-$D$22)*(E8-$E$22)</f>
         <v>-12.296355555555554</v>
       </c>
       <c r="J8" s="23">
-        <f t="shared" ref="J8:J21" si="4">(B8-B23)^2</f>
+        <f t="shared" ref="J8:J21" si="14">(B8-B23)^2</f>
         <v>1980.25</v>
       </c>
       <c r="K8" s="23">
-        <f>(C8-C23)^2</f>
+        <f t="shared" ref="K8:K21" si="15">(C8-C23)^2</f>
         <v>1544.4899999999998</v>
       </c>
       <c r="L8" s="23">
-        <f>(D8-D23)^2</f>
+        <f t="shared" ref="L8:L21" si="16">(D8-D23)^2</f>
         <v>2034.0100000000002</v>
       </c>
       <c r="M8" s="23">
-        <f t="shared" ref="M8:M21" si="5">B8^2</f>
+        <f t="shared" ref="M8:M21" si="17">B8^2</f>
         <v>1980.25</v>
       </c>
       <c r="N8" s="23">
-        <f t="shared" ref="N8:N21" si="6">C8^2</f>
+        <f t="shared" ref="N8:N21" si="18">C8^2</f>
         <v>1544.4899999999998</v>
       </c>
       <c r="O8" s="23">
-        <f t="shared" ref="O8:O21" si="7">D8^2</f>
+        <f t="shared" ref="O8:O21" si="19">D8^2</f>
         <v>2034.0100000000002</v>
       </c>
       <c r="Q8" s="4">
         <v>44.5</v>
       </c>
       <c r="R8" s="5">
-        <f>$H$24*Q8+$J$24</f>
+        <f t="shared" si="1"/>
         <v>11.033459603694229</v>
       </c>
       <c r="S8" s="5">
         <v>39.299999999999997</v>
       </c>
       <c r="T8" s="5">
-        <f>$H$25*S8+$J$25</f>
+        <f t="shared" si="2"/>
         <v>12.682474984177883</v>
       </c>
       <c r="U8" s="5">
         <v>45.1</v>
       </c>
       <c r="V8" s="5">
-        <f>$H$26*U8+$J$26</f>
+        <f t="shared" si="3"/>
         <v>12.395320685037559</v>
       </c>
       <c r="X8" s="4">
@@ -4864,31 +4861,31 @@
         <v>10.4</v>
       </c>
       <c r="AC8" s="27">
-        <f>Y8*AB8</f>
+        <f t="shared" si="4"/>
         <v>462.8</v>
       </c>
       <c r="AD8" s="27">
-        <f>Z8*AB8</f>
+        <f t="shared" si="5"/>
         <v>408.71999999999997</v>
       </c>
       <c r="AE8" s="27">
-        <f>AA8*AB8</f>
+        <f t="shared" si="6"/>
         <v>469.04</v>
       </c>
       <c r="AF8" s="27">
-        <f>Y8^2</f>
+        <f t="shared" si="7"/>
         <v>1980.25</v>
       </c>
       <c r="AG8" s="27">
-        <f>Z8^2</f>
+        <f t="shared" si="8"/>
         <v>1544.4899999999998</v>
       </c>
       <c r="AH8" s="27">
-        <f>AA8^2</f>
+        <f t="shared" si="9"/>
         <v>2034.0100000000002</v>
       </c>
       <c r="AI8" s="27">
-        <f>AB8^2</f>
+        <f t="shared" si="10"/>
         <v>108.16000000000001</v>
       </c>
     </row>
@@ -4909,60 +4906,60 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="G9" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>274.63519999999983</v>
       </c>
       <c r="H9" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>-60.66844444444439</v>
       </c>
       <c r="I9" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>-92.288355555555512</v>
       </c>
       <c r="J9" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>295.83999999999997</v>
       </c>
       <c r="K9" s="23">
-        <f>(C9-C24)^2</f>
+        <f t="shared" si="15"/>
         <v>2106.81</v>
       </c>
       <c r="L9" s="23">
-        <f>(D9-D24)^2</f>
+        <f t="shared" si="16"/>
         <v>4802.49</v>
       </c>
       <c r="M9" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>295.83999999999997</v>
       </c>
       <c r="N9" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2106.81</v>
       </c>
       <c r="O9" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4802.49</v>
       </c>
       <c r="Q9" s="4">
         <v>17.2</v>
       </c>
       <c r="R9" s="5">
-        <f>$H$24*Q9+$J$24</f>
+        <f t="shared" si="1"/>
         <v>10.486145179835402</v>
       </c>
       <c r="S9" s="5">
         <v>45.9</v>
       </c>
       <c r="T9" s="5">
-        <f>$H$25*S9+$J$25</f>
+        <f t="shared" si="2"/>
         <v>12.862499730156262</v>
       </c>
       <c r="U9" s="5">
         <v>69.3</v>
       </c>
       <c r="V9" s="5">
-        <f>$H$26*U9+$J$26</f>
+        <f t="shared" si="3"/>
         <v>12.704048990728788</v>
       </c>
       <c r="X9" s="4">
@@ -4981,31 +4978,31 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="AC9" s="27">
-        <f>Y9*AB9</f>
+        <f t="shared" si="4"/>
         <v>159.96</v>
       </c>
       <c r="AD9" s="27">
-        <f>Z9*AB9</f>
+        <f t="shared" si="5"/>
         <v>426.87</v>
       </c>
       <c r="AE9" s="27">
-        <f>AA9*AB9</f>
+        <f t="shared" si="6"/>
         <v>644.49</v>
       </c>
       <c r="AF9" s="27">
-        <f>Y9^2</f>
+        <f t="shared" si="7"/>
         <v>295.83999999999997</v>
       </c>
       <c r="AG9" s="27">
-        <f>Z9^2</f>
+        <f t="shared" si="8"/>
         <v>2106.81</v>
       </c>
       <c r="AH9" s="27">
-        <f>AA9^2</f>
+        <f t="shared" si="9"/>
         <v>4802.49</v>
       </c>
       <c r="AI9" s="27">
-        <f>AB9^2</f>
+        <f t="shared" si="10"/>
         <v>86.490000000000009</v>
       </c>
     </row>
@@ -5026,60 +5023,60 @@
         <v>18.5</v>
       </c>
       <c r="G10" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>267.01653333333343</v>
       </c>
       <c r="H10" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>96.099555555555511</v>
       </c>
       <c r="I10" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>122.6609777777778</v>
       </c>
       <c r="J10" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>22952.25</v>
       </c>
       <c r="K10" s="23">
-        <f>(C10-C25)^2</f>
+        <f t="shared" si="15"/>
         <v>1705.6899999999998</v>
       </c>
       <c r="L10" s="23">
-        <f>(D10-D25)^2</f>
+        <f t="shared" si="16"/>
         <v>3422.25</v>
       </c>
       <c r="M10" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>22952.25</v>
       </c>
       <c r="N10" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1705.6899999999998</v>
       </c>
       <c r="O10" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3422.25</v>
       </c>
       <c r="Q10" s="4">
         <v>151.5</v>
       </c>
       <c r="R10" s="5">
-        <f>$H$24*Q10+$J$24</f>
+        <f t="shared" si="1"/>
         <v>13.178611374862525</v>
       </c>
       <c r="S10" s="5">
         <v>41.3</v>
       </c>
       <c r="T10" s="5">
-        <f>$H$25*S10+$J$25</f>
+        <f t="shared" si="2"/>
         <v>12.737027937504665</v>
       </c>
       <c r="U10" s="5">
         <v>58.5</v>
       </c>
       <c r="V10" s="5">
-        <f>$H$26*U10+$J$26</f>
+        <f t="shared" si="3"/>
         <v>12.566269416288074</v>
       </c>
       <c r="X10" s="4">
@@ -5098,31 +5095,31 @@
         <v>18.5</v>
       </c>
       <c r="AC10" s="27">
-        <f>Y10*AB10</f>
+        <f t="shared" si="4"/>
         <v>2802.75</v>
       </c>
       <c r="AD10" s="27">
-        <f>Z10*AB10</f>
+        <f t="shared" si="5"/>
         <v>764.05</v>
       </c>
       <c r="AE10" s="27">
-        <f>AA10*AB10</f>
+        <f t="shared" si="6"/>
         <v>1082.25</v>
       </c>
       <c r="AF10" s="27">
-        <f>Y10^2</f>
+        <f t="shared" si="7"/>
         <v>22952.25</v>
       </c>
       <c r="AG10" s="27">
-        <f>Z10^2</f>
+        <f t="shared" si="8"/>
         <v>1705.6899999999998</v>
       </c>
       <c r="AH10" s="27">
-        <f>AA10^2</f>
+        <f t="shared" si="9"/>
         <v>3422.25</v>
       </c>
       <c r="AI10" s="27">
-        <f>AB10^2</f>
+        <f t="shared" si="10"/>
         <v>342.25</v>
       </c>
     </row>
@@ -5143,60 +5140,60 @@
         <v>12.9</v>
       </c>
       <c r="G11" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>42.50986666666676</v>
       </c>
       <c r="H11" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>-8.7804444444444645</v>
       </c>
       <c r="I11" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>11.572977777777799</v>
       </c>
       <c r="J11" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>32688.640000000003</v>
       </c>
       <c r="K11" s="23">
-        <f>(C11-C26)^2</f>
+        <f t="shared" si="15"/>
         <v>116.64000000000001</v>
       </c>
       <c r="L11" s="23">
-        <f>(D11-D26)^2</f>
+        <f t="shared" si="16"/>
         <v>3410.56</v>
       </c>
       <c r="M11" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>32688.640000000003</v>
       </c>
       <c r="N11" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>116.64000000000001</v>
       </c>
       <c r="O11" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>3410.56</v>
       </c>
       <c r="Q11" s="4">
         <v>180.8</v>
       </c>
       <c r="R11" s="5">
-        <f>$H$24*Q11+$J$24</f>
+        <f t="shared" si="1"/>
         <v>13.766022093509545</v>
       </c>
       <c r="S11" s="5">
         <v>10.8</v>
       </c>
       <c r="T11" s="5">
-        <f>$H$25*S11+$J$25</f>
+        <f t="shared" si="2"/>
         <v>11.905095399271254</v>
       </c>
       <c r="U11" s="5">
         <v>58.4</v>
       </c>
       <c r="V11" s="5">
-        <f>$H$26*U11+$J$26</f>
+        <f t="shared" si="3"/>
         <v>12.564993679487698</v>
       </c>
       <c r="X11" s="4">
@@ -5215,31 +5212,31 @@
         <v>12.9</v>
       </c>
       <c r="AC11" s="27">
-        <f>Y11*AB11</f>
+        <f t="shared" si="4"/>
         <v>2332.3200000000002</v>
       </c>
       <c r="AD11" s="27">
-        <f>Z11*AB11</f>
+        <f t="shared" si="5"/>
         <v>139.32000000000002</v>
       </c>
       <c r="AE11" s="27">
-        <f>AA11*AB11</f>
+        <f t="shared" si="6"/>
         <v>753.36</v>
       </c>
       <c r="AF11" s="27">
-        <f>Y11^2</f>
+        <f t="shared" si="7"/>
         <v>32688.640000000003</v>
       </c>
       <c r="AG11" s="27">
-        <f>Z11^2</f>
+        <f t="shared" si="8"/>
         <v>116.64000000000001</v>
       </c>
       <c r="AH11" s="27">
-        <f>AA11^2</f>
+        <f t="shared" si="9"/>
         <v>3410.56</v>
       </c>
       <c r="AI11" s="27">
-        <f>AB11^2</f>
+        <f t="shared" si="10"/>
         <v>166.41</v>
       </c>
     </row>
@@ -5260,60 +5257,60 @@
         <v>7.2</v>
       </c>
       <c r="G12" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>509.49253333333314</v>
       </c>
       <c r="H12" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>-118.28844444444438</v>
       </c>
       <c r="I12" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>-185.75035555555553</v>
       </c>
       <c r="J12" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>75.689999999999984</v>
       </c>
       <c r="K12" s="23">
-        <f>(C12-C27)^2</f>
+        <f t="shared" si="15"/>
         <v>2391.21</v>
       </c>
       <c r="L12" s="23">
-        <f>(D12-D27)^2</f>
+        <f t="shared" si="16"/>
         <v>5625</v>
       </c>
       <c r="M12" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>75.689999999999984</v>
       </c>
       <c r="N12" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>2391.21</v>
       </c>
       <c r="O12" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>5625</v>
       </c>
       <c r="Q12" s="4">
         <v>8.6999999999999993</v>
       </c>
       <c r="R12" s="5">
-        <f>$H$24*Q12+$J$24</f>
+        <f t="shared" si="1"/>
         <v>10.315735926985585</v>
       </c>
       <c r="S12" s="5">
         <v>48.9</v>
       </c>
       <c r="T12" s="5">
-        <f>$H$25*S12+$J$25</f>
+        <f t="shared" si="2"/>
         <v>12.944329160146433</v>
       </c>
       <c r="U12" s="5">
         <v>75</v>
       </c>
       <c r="V12" s="5">
-        <f>$H$26*U12+$J$26</f>
+        <f t="shared" si="3"/>
         <v>12.776765988350276</v>
       </c>
       <c r="X12" s="4">
@@ -5332,31 +5329,31 @@
         <v>7.2</v>
       </c>
       <c r="AC12" s="27">
-        <f>Y12*AB12</f>
+        <f t="shared" si="4"/>
         <v>62.639999999999993</v>
       </c>
       <c r="AD12" s="27">
-        <f>Z12*AB12</f>
+        <f t="shared" si="5"/>
         <v>352.08</v>
       </c>
       <c r="AE12" s="27">
-        <f>AA12*AB12</f>
+        <f t="shared" si="6"/>
         <v>540</v>
       </c>
       <c r="AF12" s="27">
-        <f>Y12^2</f>
+        <f t="shared" si="7"/>
         <v>75.689999999999984</v>
       </c>
       <c r="AG12" s="27">
-        <f>Z12^2</f>
+        <f t="shared" si="8"/>
         <v>2391.21</v>
       </c>
       <c r="AH12" s="27">
-        <f>AA12^2</f>
+        <f t="shared" si="9"/>
         <v>5625</v>
       </c>
       <c r="AI12" s="27">
-        <f>AB12^2</f>
+        <f t="shared" si="10"/>
         <v>51.84</v>
       </c>
     </row>
@@ -5377,60 +5374,60 @@
         <v>11.8</v>
       </c>
       <c r="G13" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>26.097866666666587</v>
       </c>
       <c r="H13" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>-3.6104444444444295</v>
       </c>
       <c r="I13" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>7.7889777777777551</v>
       </c>
       <c r="J13" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>3306.25</v>
       </c>
       <c r="K13" s="23">
-        <f>(C13-C28)^2</f>
+        <f t="shared" si="15"/>
         <v>1075.8399999999999</v>
       </c>
       <c r="L13" s="23">
-        <f>(D13-D28)^2</f>
+        <f t="shared" si="16"/>
         <v>552.25</v>
       </c>
       <c r="M13" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>3306.25</v>
       </c>
       <c r="N13" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1075.8399999999999</v>
       </c>
       <c r="O13" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>552.25</v>
       </c>
       <c r="Q13" s="4">
         <v>57.5</v>
       </c>
       <c r="R13" s="5">
-        <f>$H$24*Q13+$J$24</f>
+        <f t="shared" si="1"/>
         <v>11.294085519817481</v>
       </c>
       <c r="S13" s="5">
         <v>32.799999999999997</v>
       </c>
       <c r="T13" s="5">
-        <f>$H$25*S13+$J$25</f>
+        <f t="shared" si="2"/>
         <v>12.505177885865846</v>
       </c>
       <c r="U13" s="5">
         <v>23.5</v>
       </c>
       <c r="V13" s="5">
-        <f>$H$26*U13+$J$26</f>
+        <f t="shared" si="3"/>
         <v>12.119761536156131</v>
       </c>
       <c r="X13" s="4">
@@ -5449,31 +5446,31 @@
         <v>11.8</v>
       </c>
       <c r="AC13" s="27">
-        <f>Y13*AB13</f>
+        <f t="shared" si="4"/>
         <v>678.5</v>
       </c>
       <c r="AD13" s="27">
-        <f>Z13*AB13</f>
+        <f t="shared" si="5"/>
         <v>387.03999999999996</v>
       </c>
       <c r="AE13" s="27">
-        <f>AA13*AB13</f>
+        <f t="shared" si="6"/>
         <v>277.3</v>
       </c>
       <c r="AF13" s="27">
-        <f>Y13^2</f>
+        <f t="shared" si="7"/>
         <v>3306.25</v>
       </c>
       <c r="AG13" s="27">
-        <f>Z13^2</f>
+        <f t="shared" si="8"/>
         <v>1075.8399999999999</v>
       </c>
       <c r="AH13" s="27">
-        <f>AA13^2</f>
+        <f t="shared" si="9"/>
         <v>552.25</v>
       </c>
       <c r="AI13" s="27">
-        <f>AB13^2</f>
+        <f t="shared" si="10"/>
         <v>139.24</v>
       </c>
     </row>
@@ -5494,60 +5491,60 @@
         <v>13.2</v>
       </c>
       <c r="G14" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>10.51586666666668</v>
       </c>
       <c r="H14" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>-5.4677777777777825</v>
       </c>
       <c r="I14" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>-24.00502222222222</v>
       </c>
       <c r="J14" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>14448.04</v>
       </c>
       <c r="K14" s="23">
-        <f>(C14-C29)^2</f>
+        <f t="shared" si="15"/>
         <v>384.16000000000008</v>
       </c>
       <c r="L14" s="23">
-        <f>(D14-D29)^2</f>
+        <f t="shared" si="16"/>
         <v>134.56</v>
       </c>
       <c r="M14" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>14448.04</v>
       </c>
       <c r="N14" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>384.16000000000008</v>
       </c>
       <c r="O14" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>134.56</v>
       </c>
       <c r="Q14" s="4">
         <v>120.2</v>
       </c>
       <c r="R14" s="5">
-        <f>$H$24*Q14+$J$24</f>
+        <f t="shared" si="1"/>
         <v>12.551104361427313</v>
       </c>
       <c r="S14" s="5">
         <v>19.600000000000001</v>
       </c>
       <c r="T14" s="5">
-        <f>$H$25*S14+$J$25</f>
+        <f t="shared" si="2"/>
         <v>12.145128393909092</v>
       </c>
       <c r="U14" s="5">
         <v>11.6</v>
       </c>
       <c r="V14" s="5">
-        <f>$H$26*U14+$J$26</f>
+        <f t="shared" si="3"/>
         <v>11.967948856911272</v>
       </c>
       <c r="X14" s="4">
@@ -5566,31 +5563,31 @@
         <v>13.2</v>
       </c>
       <c r="AC14" s="27">
-        <f>Y14*AB14</f>
+        <f t="shared" si="4"/>
         <v>1586.6399999999999</v>
       </c>
       <c r="AD14" s="27">
-        <f>Z14*AB14</f>
+        <f t="shared" si="5"/>
         <v>258.72000000000003</v>
       </c>
       <c r="AE14" s="27">
-        <f>AA14*AB14</f>
+        <f t="shared" si="6"/>
         <v>153.11999999999998</v>
       </c>
       <c r="AF14" s="27">
-        <f>Y14^2</f>
+        <f t="shared" si="7"/>
         <v>14448.04</v>
       </c>
       <c r="AG14" s="27">
-        <f>Z14^2</f>
+        <f t="shared" si="8"/>
         <v>384.16000000000008</v>
       </c>
       <c r="AH14" s="27">
-        <f>AA14^2</f>
+        <f t="shared" si="9"/>
         <v>134.56</v>
       </c>
       <c r="AI14" s="27">
-        <f>AB14^2</f>
+        <f t="shared" si="10"/>
         <v>174.23999999999998</v>
       </c>
     </row>
@@ -5611,60 +5608,60 @@
         <v>4.8</v>
       </c>
       <c r="G15" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>749.37986666666654</v>
       </c>
       <c r="H15" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>177.81555555555559</v>
       </c>
       <c r="I15" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>283.05231111111107</v>
       </c>
       <c r="J15" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>73.959999999999994</v>
       </c>
       <c r="K15" s="23">
-        <f>(C15-C30)^2</f>
+        <f t="shared" si="15"/>
         <v>4.41</v>
       </c>
       <c r="L15" s="23">
-        <f>(D15-D30)^2</f>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="M15" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>73.959999999999994</v>
       </c>
       <c r="N15" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>4.41</v>
       </c>
       <c r="O15" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="Q15" s="4">
         <v>8.6</v>
       </c>
       <c r="R15" s="5">
-        <f>$H$24*Q15+$J$24</f>
+        <f t="shared" si="1"/>
         <v>10.313731112246176</v>
       </c>
       <c r="S15" s="5">
         <v>2.1</v>
       </c>
       <c r="T15" s="5">
-        <f>$H$25*S15+$J$25</f>
+        <f t="shared" si="2"/>
         <v>11.667790052299758</v>
       </c>
       <c r="U15" s="5">
         <v>1</v>
       </c>
       <c r="V15" s="5">
-        <f>$H$26*U15+$J$26</f>
+        <f t="shared" si="3"/>
         <v>11.832720756071312</v>
       </c>
       <c r="X15" s="4">
@@ -5683,31 +5680,31 @@
         <v>4.8</v>
       </c>
       <c r="AC15" s="27">
-        <f>Y15*AB15</f>
+        <f t="shared" si="4"/>
         <v>41.279999999999994</v>
       </c>
       <c r="AD15" s="27">
-        <f>Z15*AB15</f>
+        <f t="shared" si="5"/>
         <v>10.08</v>
       </c>
       <c r="AE15" s="27">
-        <f>AA15*AB15</f>
+        <f t="shared" si="6"/>
         <v>4.8</v>
       </c>
       <c r="AF15" s="27">
-        <f>Y15^2</f>
+        <f t="shared" si="7"/>
         <v>73.959999999999994</v>
       </c>
       <c r="AG15" s="27">
-        <f>Z15^2</f>
+        <f t="shared" si="8"/>
         <v>4.41</v>
       </c>
       <c r="AH15" s="27">
-        <f>AA15^2</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AI15" s="27">
-        <f>AB15^2</f>
+        <f t="shared" si="10"/>
         <v>23.04</v>
       </c>
     </row>
@@ -5728,60 +5725,60 @@
         <v>10.6</v>
       </c>
       <c r="G16" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>-156.70146666666668</v>
       </c>
       <c r="H16" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>39.69222222222222</v>
       </c>
       <c r="I16" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>29.937644444444437</v>
       </c>
       <c r="J16" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>39920.040000000008</v>
       </c>
       <c r="K16" s="23">
-        <f>(C16-C31)^2</f>
+        <f t="shared" si="15"/>
         <v>6.7600000000000007</v>
       </c>
       <c r="L16" s="23">
-        <f>(D16-D31)^2</f>
+        <f t="shared" si="16"/>
         <v>449.44</v>
       </c>
       <c r="M16" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>39920.040000000008</v>
       </c>
       <c r="N16" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>6.7600000000000007</v>
       </c>
       <c r="O16" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>449.44</v>
       </c>
       <c r="Q16" s="4">
         <v>199.8</v>
       </c>
       <c r="R16" s="5">
-        <f>$H$24*Q16+$J$24</f>
+        <f t="shared" si="1"/>
         <v>14.146936893997374</v>
       </c>
       <c r="S16" s="5">
         <v>2.6</v>
       </c>
       <c r="T16" s="5">
-        <f>$H$25*S16+$J$25</f>
+        <f t="shared" si="2"/>
         <v>11.681428290631452</v>
       </c>
       <c r="U16" s="5">
         <v>21.2</v>
       </c>
       <c r="V16" s="5">
-        <f>$H$26*U16+$J$26</f>
+        <f t="shared" si="3"/>
         <v>12.090419589747462</v>
       </c>
       <c r="X16" s="4">
@@ -5800,31 +5797,31 @@
         <v>10.6</v>
       </c>
       <c r="AC16" s="27">
-        <f>Y16*AB16</f>
+        <f t="shared" si="4"/>
         <v>2117.88</v>
       </c>
       <c r="AD16" s="27">
-        <f>Z16*AB16</f>
+        <f t="shared" si="5"/>
         <v>27.56</v>
       </c>
       <c r="AE16" s="27">
-        <f>AA16*AB16</f>
+        <f t="shared" si="6"/>
         <v>224.72</v>
       </c>
       <c r="AF16" s="27">
-        <f>Y16^2</f>
+        <f t="shared" si="7"/>
         <v>39920.040000000008</v>
       </c>
       <c r="AG16" s="27">
-        <f>Z16^2</f>
+        <f t="shared" si="8"/>
         <v>6.7600000000000007</v>
       </c>
       <c r="AH16" s="27">
-        <f>AA16^2</f>
+        <f t="shared" si="9"/>
         <v>449.44</v>
       </c>
       <c r="AI16" s="27">
-        <f>AB16^2</f>
+        <f t="shared" si="10"/>
         <v>112.36</v>
       </c>
     </row>
@@ -5845,60 +5842,60 @@
         <v>8.6</v>
       </c>
       <c r="G17" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>156.85119999999998</v>
       </c>
       <c r="H17" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>74.142888888888905</v>
       </c>
       <c r="I17" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>53.744311111111102</v>
       </c>
       <c r="J17" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>4369.2099999999991</v>
       </c>
       <c r="K17" s="23">
-        <f>(C17-C32)^2</f>
+        <f t="shared" si="15"/>
         <v>33.64</v>
       </c>
       <c r="L17" s="23">
-        <f>(D17-D32)^2</f>
+        <f t="shared" si="16"/>
         <v>585.64</v>
       </c>
       <c r="M17" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>4369.2099999999991</v>
       </c>
       <c r="N17" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>33.64</v>
       </c>
       <c r="O17" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>585.64</v>
       </c>
       <c r="Q17" s="4">
         <v>66.099999999999994</v>
       </c>
       <c r="R17" s="5">
-        <f>$H$24*Q17+$J$24</f>
+        <f t="shared" si="1"/>
         <v>11.466499587406707</v>
       </c>
       <c r="S17" s="5">
         <v>5.8</v>
       </c>
       <c r="T17" s="5">
-        <f>$H$25*S17+$J$25</f>
+        <f t="shared" si="2"/>
         <v>11.768713015954301</v>
       </c>
       <c r="U17" s="5">
         <v>24.2</v>
       </c>
       <c r="V17" s="5">
-        <f>$H$26*U17+$J$26</f>
+        <f t="shared" si="3"/>
         <v>12.128691693758771</v>
       </c>
       <c r="X17" s="4">
@@ -5917,31 +5914,31 @@
         <v>8.6</v>
       </c>
       <c r="AC17" s="27">
-        <f>Y17*AB17</f>
+        <f t="shared" si="4"/>
         <v>568.45999999999992</v>
       </c>
       <c r="AD17" s="27">
-        <f>Z17*AB17</f>
+        <f t="shared" si="5"/>
         <v>49.879999999999995</v>
       </c>
       <c r="AE17" s="27">
-        <f>AA17*AB17</f>
+        <f t="shared" si="6"/>
         <v>208.11999999999998</v>
       </c>
       <c r="AF17" s="27">
-        <f>Y17^2</f>
+        <f t="shared" si="7"/>
         <v>4369.2099999999991</v>
       </c>
       <c r="AG17" s="27">
-        <f>Z17^2</f>
+        <f t="shared" si="8"/>
         <v>33.64</v>
       </c>
       <c r="AH17" s="27">
-        <f>AA17^2</f>
+        <f t="shared" si="9"/>
         <v>585.64</v>
       </c>
       <c r="AI17" s="27">
-        <f>AB17^2</f>
+        <f t="shared" si="10"/>
         <v>73.959999999999994</v>
       </c>
     </row>
@@ -5962,60 +5959,60 @@
         <v>17.399999999999999</v>
       </c>
       <c r="G18" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>541.01786666666658</v>
       </c>
       <c r="H18" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>-8.9864444444444747</v>
       </c>
       <c r="I18" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>-176.37168888888885</v>
       </c>
       <c r="J18" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>46096.09</v>
       </c>
       <c r="K18" s="23">
-        <f>(C18-C33)^2</f>
+        <f t="shared" si="15"/>
         <v>576</v>
       </c>
       <c r="L18" s="23">
-        <f>(D18-D33)^2</f>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="M18" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>46096.09</v>
       </c>
       <c r="N18" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>576</v>
       </c>
       <c r="O18" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>16</v>
       </c>
       <c r="Q18" s="4">
         <v>214.7</v>
       </c>
       <c r="R18" s="5">
-        <f>$H$24*Q18+$J$24</f>
+        <f t="shared" si="1"/>
         <v>14.445654290169406</v>
       </c>
       <c r="S18" s="5">
         <v>24</v>
       </c>
       <c r="T18" s="5">
-        <f>$H$25*S18+$J$25</f>
+        <f t="shared" si="2"/>
         <v>12.26514489122801</v>
       </c>
       <c r="U18" s="5">
         <v>4</v>
       </c>
       <c r="V18" s="5">
-        <f>$H$26*U18+$J$26</f>
+        <f t="shared" si="3"/>
         <v>11.870992860082621</v>
       </c>
       <c r="X18" s="4">
@@ -6034,31 +6031,31 @@
         <v>17.399999999999999</v>
       </c>
       <c r="AC18" s="27">
-        <f>Y18*AB18</f>
+        <f t="shared" si="4"/>
         <v>3735.7799999999993</v>
       </c>
       <c r="AD18" s="27">
-        <f>Z18*AB18</f>
+        <f t="shared" si="5"/>
         <v>417.59999999999997</v>
       </c>
       <c r="AE18" s="27">
-        <f>AA18*AB18</f>
+        <f t="shared" si="6"/>
         <v>69.599999999999994</v>
       </c>
       <c r="AF18" s="27">
-        <f>Y18^2</f>
+        <f t="shared" si="7"/>
         <v>46096.09</v>
       </c>
       <c r="AG18" s="27">
-        <f>Z18^2</f>
+        <f t="shared" si="8"/>
         <v>576</v>
       </c>
       <c r="AH18" s="27">
-        <f>AA18^2</f>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="AI18" s="27">
-        <f>AB18^2</f>
+        <f t="shared" si="10"/>
         <v>302.75999999999993</v>
       </c>
     </row>
@@ -6079,60 +6076,60 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="G19" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>263.20119999999997</v>
       </c>
       <c r="H19" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>-29.057777777777762</v>
       </c>
       <c r="I19" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>-84.765688888888903</v>
       </c>
       <c r="J19" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>566.44000000000005</v>
       </c>
       <c r="K19" s="23">
-        <f>(C19-C34)^2</f>
+        <f t="shared" si="15"/>
         <v>1232.01</v>
       </c>
       <c r="L19" s="23">
-        <f>(D19-D34)^2</f>
+        <f t="shared" si="16"/>
         <v>4342.8100000000004</v>
       </c>
       <c r="M19" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>566.44000000000005</v>
       </c>
       <c r="N19" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1232.01</v>
       </c>
       <c r="O19" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>4342.8100000000004</v>
       </c>
       <c r="Q19" s="4">
         <v>23.8</v>
       </c>
       <c r="R19" s="5">
-        <f>$H$24*Q19+$J$24</f>
+        <f t="shared" si="1"/>
         <v>10.618462952636438</v>
       </c>
       <c r="S19" s="5">
         <v>35.1</v>
       </c>
       <c r="T19" s="5">
-        <f>$H$25*S19+$J$25</f>
+        <f t="shared" si="2"/>
         <v>12.567913782191644</v>
       </c>
       <c r="U19" s="5">
         <v>65.900000000000006</v>
       </c>
       <c r="V19" s="5">
-        <f>$H$26*U19+$J$26</f>
+        <f t="shared" si="3"/>
         <v>12.66067393951597</v>
       </c>
       <c r="X19" s="4">
@@ -6151,31 +6148,31 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="AC19" s="27">
-        <f>Y19*AB19</f>
+        <f t="shared" si="4"/>
         <v>218.95999999999998</v>
       </c>
       <c r="AD19" s="27">
-        <f>Z19*AB19</f>
+        <f t="shared" si="5"/>
         <v>322.92</v>
       </c>
       <c r="AE19" s="27">
-        <f>AA19*AB19</f>
+        <f t="shared" si="6"/>
         <v>606.28</v>
       </c>
       <c r="AF19" s="27">
-        <f>Y19^2</f>
+        <f t="shared" si="7"/>
         <v>566.44000000000005</v>
       </c>
       <c r="AG19" s="27">
-        <f>Z19^2</f>
+        <f t="shared" si="8"/>
         <v>1232.01</v>
       </c>
       <c r="AH19" s="27">
-        <f>AA19^2</f>
+        <f t="shared" si="9"/>
         <v>4342.8100000000004</v>
       </c>
       <c r="AI19" s="27">
-        <f>AB19^2</f>
+        <f t="shared" si="10"/>
         <v>84.639999999999986</v>
       </c>
     </row>
@@ -6196,60 +6193,60 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="G20" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>28.328533333333304</v>
       </c>
       <c r="H20" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>47.475555555555566</v>
       </c>
       <c r="I20" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>82.250311111111102</v>
       </c>
       <c r="J20" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>9506.25</v>
       </c>
       <c r="K20" s="23">
-        <f>(C20-C35)^2</f>
+        <f t="shared" si="15"/>
         <v>57.76</v>
       </c>
       <c r="L20" s="23">
-        <f>(D20-D35)^2</f>
+        <f t="shared" si="16"/>
         <v>51.84</v>
       </c>
       <c r="M20" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>9506.25</v>
       </c>
       <c r="N20" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>57.76</v>
       </c>
       <c r="O20" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>51.84</v>
       </c>
       <c r="Q20" s="4">
         <v>97.5</v>
       </c>
       <c r="R20" s="5">
-        <f>$H$24*Q20+$J$24</f>
+        <f t="shared" si="1"/>
         <v>12.09601141558133</v>
       </c>
       <c r="S20" s="5">
         <v>7.6</v>
       </c>
       <c r="T20" s="5">
-        <f>$H$25*S20+$J$25</f>
+        <f t="shared" si="2"/>
         <v>11.817810673948404</v>
       </c>
       <c r="U20" s="5">
         <v>7.2</v>
       </c>
       <c r="V20" s="5">
-        <f>$H$26*U20+$J$26</f>
+        <f t="shared" si="3"/>
         <v>11.911816437694684</v>
       </c>
       <c r="X20" s="4">
@@ -6268,31 +6265,31 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="AC20" s="27">
-        <f>Y20*AB20</f>
+        <f t="shared" si="4"/>
         <v>945.74999999999989</v>
       </c>
       <c r="AD20" s="27">
-        <f>Z20*AB20</f>
+        <f t="shared" si="5"/>
         <v>73.719999999999985</v>
       </c>
       <c r="AE20" s="27">
-        <f>AA20*AB20</f>
+        <f t="shared" si="6"/>
         <v>69.84</v>
       </c>
       <c r="AF20" s="27">
-        <f>Y20^2</f>
+        <f t="shared" si="7"/>
         <v>9506.25</v>
       </c>
       <c r="AG20" s="27">
-        <f>Z20^2</f>
+        <f t="shared" si="8"/>
         <v>57.76</v>
       </c>
       <c r="AH20" s="27">
-        <f>AA20^2</f>
+        <f t="shared" si="9"/>
         <v>51.84</v>
       </c>
       <c r="AI20" s="27">
-        <f>AB20^2</f>
+        <f t="shared" si="10"/>
         <v>94.089999999999989</v>
       </c>
     </row>
@@ -6313,60 +6310,60 @@
         <v>19</v>
       </c>
       <c r="G21" s="22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>640.31520000000012</v>
       </c>
       <c r="H21" s="22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>47.698222222222178</v>
       </c>
       <c r="I21" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>48.990977777777793</v>
       </c>
       <c r="J21" s="23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>41656.81</v>
       </c>
       <c r="K21" s="23">
-        <f>(C21-C36)^2</f>
+        <f t="shared" si="15"/>
         <v>1082.4099999999999</v>
       </c>
       <c r="L21" s="23">
-        <f>(D21-D36)^2</f>
+        <f t="shared" si="16"/>
         <v>2116</v>
       </c>
       <c r="M21" s="23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="17"/>
         <v>41656.81</v>
       </c>
       <c r="N21" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1082.4099999999999</v>
       </c>
       <c r="O21" s="23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>2116</v>
       </c>
       <c r="Q21" s="4">
         <v>204.1</v>
       </c>
       <c r="R21" s="5">
-        <f>$H$24*Q21+$J$24</f>
+        <f t="shared" si="1"/>
         <v>14.233143927791986</v>
       </c>
       <c r="S21" s="5">
         <v>32.9</v>
       </c>
       <c r="T21" s="5">
-        <f>$H$25*S21+$J$25</f>
+        <f t="shared" si="2"/>
         <v>12.507905533532185</v>
       </c>
       <c r="U21" s="5">
         <v>46</v>
       </c>
       <c r="V21" s="5">
-        <f>$H$26*U21+$J$26</f>
+        <f t="shared" si="3"/>
         <v>12.406802316240952</v>
       </c>
       <c r="X21" s="4">
@@ -6385,31 +6382,31 @@
         <v>19</v>
       </c>
       <c r="AC21" s="27">
-        <f>Y21*AB21</f>
+        <f t="shared" si="4"/>
         <v>3877.9</v>
       </c>
       <c r="AD21" s="27">
-        <f>Z21*AB21</f>
+        <f t="shared" si="5"/>
         <v>625.1</v>
       </c>
       <c r="AE21" s="27">
-        <f>AA21*AB21</f>
+        <f t="shared" si="6"/>
         <v>874</v>
       </c>
       <c r="AF21" s="27">
-        <f>Y21^2</f>
+        <f t="shared" si="7"/>
         <v>41656.81</v>
       </c>
       <c r="AG21" s="27">
-        <f>Z21^2</f>
+        <f t="shared" si="8"/>
         <v>1082.4099999999999</v>
       </c>
       <c r="AH21" s="27">
-        <f>AA21^2</f>
+        <f t="shared" si="9"/>
         <v>2116</v>
       </c>
       <c r="AI21" s="27">
-        <f>AB21^2</f>
+        <f t="shared" si="10"/>
         <v>361</v>
       </c>
     </row>
@@ -6422,15 +6419,15 @@
         <v>108.33999999999999</v>
       </c>
       <c r="C22" s="7">
-        <f t="shared" ref="C22:E22" si="8">AVERAGE(C7:C21)</f>
+        <f t="shared" ref="C22:E22" si="20">AVERAGE(C7:C21)</f>
         <v>25.766666666666673</v>
       </c>
       <c r="D22" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>38.673333333333332</v>
       </c>
       <c r="E22" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>12.313333333333333</v>
       </c>
       <c r="F22" s="24" t="s">
@@ -6441,35 +6438,35 @@
         <v>4666.4319999999998</v>
       </c>
       <c r="H22" s="7">
-        <f t="shared" ref="H22:I22" si="9">SUM(H7:H21)</f>
+        <f t="shared" ref="H22:I22" si="21">SUM(H7:H21)</f>
         <v>339.93666666666672</v>
       </c>
       <c r="I22" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="21"/>
         <v>363.27533333333344</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" ref="J22:L22" si="10">SUM(J7:J21)</f>
+        <f t="shared" ref="J22:L22" si="22">SUM(J7:J21)</f>
         <v>232761.25760000001</v>
       </c>
       <c r="K22" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>12462.63111111111</v>
       </c>
       <c r="L22" s="4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="22"/>
         <v>28475.727377777781</v>
       </c>
       <c r="M22" s="4">
-        <f t="shared" ref="M22" si="11">SUM(M7:M21)</f>
+        <f t="shared" ref="M22" si="23">SUM(M7:M21)</f>
         <v>270881.77</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" ref="N22" si="12">SUM(N7:N21)</f>
+        <f t="shared" ref="N22" si="24">SUM(N7:N21)</f>
         <v>13746.67</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" ref="O22" si="13">SUM(O7:O21)</f>
+        <f t="shared" ref="O22" si="25">SUM(O7:O21)</f>
         <v>32332.49</v>
       </c>
       <c r="Q22" s="1"/>
@@ -6482,47 +6479,47 @@
         <v>15</v>
       </c>
       <c r="Y22" s="20">
-        <f>SUM(Y7:Y21)</f>
+        <f t="shared" ref="Y22:AI22" si="26">SUM(Y7:Y21)</f>
         <v>1625.1</v>
       </c>
       <c r="Z22" s="20">
-        <f>SUM(Z7:Z21)</f>
+        <f t="shared" si="26"/>
         <v>386.50000000000011</v>
       </c>
       <c r="AA22" s="20">
-        <f>SUM(AA7:AA21)</f>
+        <f t="shared" si="26"/>
         <v>580.1</v>
       </c>
       <c r="AB22" s="20">
-        <f>SUM(AB7:AB21)</f>
+        <f t="shared" si="26"/>
         <v>184.7</v>
       </c>
       <c r="AC22" s="20">
-        <f>SUM(AC7:AC21)</f>
+        <f t="shared" si="26"/>
         <v>24676.829999999998</v>
       </c>
       <c r="AD22" s="20">
-        <f>SUM(AD7:AD21)</f>
+        <f t="shared" si="26"/>
         <v>5099.04</v>
       </c>
       <c r="AE22" s="20">
-        <f>SUM(AE7:AE21)</f>
+        <f t="shared" si="26"/>
         <v>7506.2400000000007</v>
       </c>
       <c r="AF22" s="20">
-        <f>SUM(AF7:AF21)</f>
+        <f t="shared" si="26"/>
         <v>270881.77</v>
       </c>
       <c r="AG22" s="20">
-        <f>SUM(AG7:AG21)</f>
+        <f t="shared" si="26"/>
         <v>13746.67</v>
       </c>
       <c r="AH22" s="20">
-        <f>SUM(AH7:AH21)</f>
+        <f t="shared" si="26"/>
         <v>32332.49</v>
       </c>
       <c r="AI22" s="20">
-        <f>SUM(AI7:AI21)</f>
+        <f t="shared" si="26"/>
         <v>2608.89</v>
       </c>
     </row>
@@ -6727,7 +6724,7 @@
         <v>3.9844833547049825E-2</v>
       </c>
     </row>
-    <row r="33" spans="25:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="25:28" x14ac:dyDescent="0.3">
       <c r="Y33" s="1" t="s">
         <v>34</v>
       </c>
@@ -6742,9 +6739,6 @@
       <c r="AB33" s="32">
         <f>AB30^2</f>
         <v>3.9844833547049825E-2</v>
-      </c>
-      <c r="AG33" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
